--- a/table/Describe_yearly.xlsx
+++ b/table/Describe_yearly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Swatch_close</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,6 +719,70 @@
         <v>0.002196772340961815</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>-0.9281307535562164</v>
+      </c>
+      <c r="C10">
+        <v>-0.8269329154854921</v>
+      </c>
+      <c r="D10">
+        <v>-0.987662890683533</v>
+      </c>
+      <c r="E10">
+        <v>-0.7292208757671195</v>
+      </c>
+      <c r="F10">
+        <v>-0.001363846289370585</v>
+      </c>
+      <c r="G10">
+        <v>17.55766688864428</v>
+      </c>
+      <c r="H10">
+        <v>-0.5928536459993974</v>
+      </c>
+      <c r="I10">
+        <v>0.03816459767668867</v>
+      </c>
+      <c r="J10">
+        <v>0.04984845540745075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.3360760329081248</v>
+      </c>
+      <c r="C11">
+        <v>0.5582412009744683</v>
+      </c>
+      <c r="D11">
+        <v>0.1169047197158374</v>
+      </c>
+      <c r="E11">
+        <v>-0.5707829804977189</v>
+      </c>
+      <c r="F11">
+        <v>-0.3359289652920702</v>
+      </c>
+      <c r="G11">
+        <v>4.391827453323923</v>
+      </c>
+      <c r="H11">
+        <v>-0.6796623849322794</v>
+      </c>
+      <c r="I11">
+        <v>-0.4984928340805115</v>
+      </c>
+      <c r="J11">
+        <v>0.1527733134261053</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table/Describe_yearly.xlsx
+++ b/table/Describe_yearly.xlsx
@@ -500,31 +500,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>230.3489705064524</v>
+        <v>230.3410086458326</v>
       </c>
       <c r="C3">
-        <v>36.77190516713806</v>
+        <v>36.77165104067858</v>
       </c>
       <c r="D3">
-        <v>7429.577481315566</v>
+        <v>7429.04471109054</v>
       </c>
       <c r="E3">
-        <v>2.390661765397685e-05</v>
+        <v>1.839119120028282e-05</v>
       </c>
       <c r="F3">
-        <v>0.0002021117388707002</v>
+        <v>0.0002011689164082732</v>
       </c>
       <c r="G3">
-        <v>0.002053035863319755</v>
+        <v>0.002048836469630799</v>
       </c>
       <c r="H3">
-        <v>-5.863082917479817e-05</v>
+        <v>-6.420914186063638e-05</v>
       </c>
       <c r="I3">
-        <v>-3.277130403809874e-05</v>
+        <v>-3.386793621156059e-05</v>
       </c>
       <c r="J3">
-        <v>0.0005150334304730456</v>
+        <v>0.0005107482867955939</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>120.245503449824</v>
+        <v>120.2578711527474</v>
       </c>
       <c r="C4">
-        <v>31.09525175611015</v>
+        <v>31.09553687174511</v>
       </c>
       <c r="D4">
-        <v>1445.52543048276</v>
+        <v>1445.744532204965</v>
       </c>
       <c r="E4">
-        <v>0.0007586505578718489</v>
+        <v>0.0007668704159338279</v>
       </c>
       <c r="F4">
-        <v>0.001744317452430701</v>
+        <v>0.001745846028043565</v>
       </c>
       <c r="G4">
-        <v>0.006949589731303411</v>
+        <v>0.006951493752196234</v>
       </c>
       <c r="H4">
-        <v>0.000823542924858479</v>
+        <v>0.0008324407843436287</v>
       </c>
       <c r="I4">
-        <v>0.001825011377347103</v>
+        <v>0.001826819635445127</v>
       </c>
       <c r="J4">
-        <v>0.0007609135515225199</v>
+        <v>0.0007711812066940851</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>51.76290570772611</v>
+        <v>51.57978291347109</v>
       </c>
       <c r="C5">
         <v>3.364877750751058</v>
@@ -579,7 +579,7 @@
         <v>-0.00371788037557979</v>
       </c>
       <c r="G5">
-        <v>-0.0009151551052010154</v>
+        <v>-0.001011741160046986</v>
       </c>
       <c r="H5">
         <v>-0.001702128923812033</v>
@@ -588,7 +588,7 @@
         <v>-0.004223067063455919</v>
       </c>
       <c r="J5">
-        <v>-0.001193554461789937</v>
+        <v>-0.001292112766371326</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -724,31 +724,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.9281307535562164</v>
+        <v>-0.9279426750603066</v>
       </c>
       <c r="C10">
-        <v>-0.8269329154854921</v>
+        <v>-0.8269497971877056</v>
       </c>
       <c r="D10">
-        <v>-0.987662890683533</v>
+        <v>-0.9886076032345201</v>
       </c>
       <c r="E10">
-        <v>-0.7292208757671195</v>
+        <v>-0.7517072576464061</v>
       </c>
       <c r="F10">
-        <v>-0.001363846289370585</v>
+        <v>-0.003800676817137028</v>
       </c>
       <c r="G10">
-        <v>17.55766688864428</v>
+        <v>17.54621232145501</v>
       </c>
       <c r="H10">
-        <v>-0.5928536459993974</v>
+        <v>-0.6099151025007452</v>
       </c>
       <c r="I10">
-        <v>0.03816459767668867</v>
+        <v>0.03521150599684653</v>
       </c>
       <c r="J10">
-        <v>0.04984845540745075</v>
+        <v>0.1800073693397075</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,31 +756,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.3360760329081248</v>
+        <v>0.3357067394632963</v>
       </c>
       <c r="C11">
-        <v>0.5582412009744683</v>
+        <v>0.5582207309032605</v>
       </c>
       <c r="D11">
-        <v>0.1169047197158374</v>
+        <v>0.1177989365322914</v>
       </c>
       <c r="E11">
-        <v>-0.5707829804977189</v>
+        <v>-0.5772203458492937</v>
       </c>
       <c r="F11">
-        <v>-0.3359289652920702</v>
+        <v>-0.3375535916442383</v>
       </c>
       <c r="G11">
-        <v>4.391827453323923</v>
+        <v>4.389707880784701</v>
       </c>
       <c r="H11">
-        <v>-0.6796623849322794</v>
+        <v>-0.6872970609103867</v>
       </c>
       <c r="I11">
-        <v>-0.4984928340805115</v>
+        <v>-0.499958634563595</v>
       </c>
       <c r="J11">
-        <v>0.1527733134261053</v>
+        <v>0.07118602793751168</v>
       </c>
     </row>
   </sheetData>

--- a/table/Describe_yearly.xlsx
+++ b/table/Describe_yearly.xlsx
@@ -500,31 +500,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>230.3410086458326</v>
+        <v>230.3494428688307</v>
       </c>
       <c r="C3">
-        <v>36.77165104067858</v>
+        <v>36.77078825377362</v>
       </c>
       <c r="D3">
-        <v>7429.04471109054</v>
+        <v>7429.06666597256</v>
       </c>
       <c r="E3">
-        <v>1.839119120028282e-05</v>
+        <v>1.94065696446715e-05</v>
       </c>
       <c r="F3">
-        <v>0.0002011689164082732</v>
+        <v>0.0002090695251441516</v>
       </c>
       <c r="G3">
-        <v>0.002048836469630799</v>
+        <v>0.002092955704668086</v>
       </c>
       <c r="H3">
-        <v>-6.420914186063638e-05</v>
+        <v>-6.422023758587004e-05</v>
       </c>
       <c r="I3">
-        <v>-3.386793621156059e-05</v>
+        <v>-2.886964867387647e-05</v>
       </c>
       <c r="J3">
-        <v>0.0005107482867955939</v>
+        <v>0.000518792793448791</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>120.2578711527474</v>
+        <v>120.261519343859</v>
       </c>
       <c r="C4">
-        <v>31.09553687174511</v>
+        <v>31.09562121552957</v>
       </c>
       <c r="D4">
-        <v>1445.744532204965</v>
+        <v>1446.621783096789</v>
       </c>
       <c r="E4">
-        <v>0.0007668704159338279</v>
+        <v>0.0007748772108751444</v>
       </c>
       <c r="F4">
-        <v>0.001745846028043565</v>
+        <v>0.001761500766263047</v>
       </c>
       <c r="G4">
-        <v>0.006951493752196234</v>
+        <v>0.007122371325514885</v>
       </c>
       <c r="H4">
-        <v>0.0008324407843436287</v>
+        <v>0.0008406459779940857</v>
       </c>
       <c r="I4">
-        <v>0.001826819635445127</v>
+        <v>0.001843216340426378</v>
       </c>
       <c r="J4">
-        <v>0.0007711812066940851</v>
+        <v>0.0007854031201845243</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,31 +564,31 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>51.57978291347109</v>
+        <v>51.5775204534116</v>
       </c>
       <c r="C5">
-        <v>3.364877750751058</v>
+        <v>3.364594873629118</v>
       </c>
       <c r="D5">
-        <v>4836.031608398437</v>
+        <v>4836.86845322906</v>
       </c>
       <c r="E5">
-        <v>-0.001455783966125744</v>
+        <v>-0.001465077895067884</v>
       </c>
       <c r="F5">
         <v>-0.00371788037557979</v>
       </c>
       <c r="G5">
-        <v>-0.001011741160046986</v>
+        <v>-0.00102028908980828</v>
       </c>
       <c r="H5">
-        <v>-0.001702128923812033</v>
+        <v>-0.001715800642075584</v>
       </c>
       <c r="I5">
         <v>-0.004223067063455919</v>
       </c>
       <c r="J5">
-        <v>-0.001292112766371326</v>
+        <v>-0.001303447088883354</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,19 +596,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>128.5083743008107</v>
+        <v>128.5608950163189</v>
       </c>
       <c r="C6">
-        <v>6.078254163762798</v>
+        <v>6.078327965151301</v>
       </c>
       <c r="D6">
-        <v>6390.940245686208</v>
+        <v>6394.477218348349</v>
       </c>
       <c r="E6">
         <v>-0.0003118013579339145</v>
       </c>
       <c r="F6">
-        <v>-0.0006989375294291097</v>
+        <v>-0.0007103492011536255</v>
       </c>
       <c r="G6">
         <v>0.0001152068462551253</v>
@@ -617,10 +617,10 @@
         <v>-0.0003741230647685379</v>
       </c>
       <c r="I6">
-        <v>-0.001041150987083888</v>
+        <v>-0.00104920369192325</v>
       </c>
       <c r="J6">
-        <v>1.167405559206882e-05</v>
+        <v>1.15081109305493e-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -631,25 +631,25 @@
         <v>221.6437949044364</v>
       </c>
       <c r="C7">
-        <v>30.33004682472503</v>
+        <v>30.35144531678962</v>
       </c>
       <c r="D7">
-        <v>7130.881822427742</v>
+        <v>7128.394742772647</v>
       </c>
       <c r="E7">
-        <v>0.0001771441565360186</v>
+        <v>0.0001810515968866393</v>
       </c>
       <c r="F7">
-        <v>0.0006196160444005806</v>
+        <v>0.0006336604605253081</v>
       </c>
       <c r="G7">
         <v>0.0005312188393305596</v>
       </c>
       <c r="H7">
-        <v>0.0001452375632414699</v>
+        <v>0.0001487656012149484</v>
       </c>
       <c r="I7">
-        <v>0.0004949675754518997</v>
+        <v>0.000506991079309032</v>
       </c>
       <c r="J7">
         <v>0.000490859710631845</v>
@@ -669,22 +669,22 @@
         <v>8739.983144492031</v>
       </c>
       <c r="E8">
-        <v>0.0006003931907540741</v>
+        <v>0.0006077511071921785</v>
       </c>
       <c r="F8">
-        <v>0.001230477253857205</v>
+        <v>0.001241410386936966</v>
       </c>
       <c r="G8">
-        <v>0.001129723167998119</v>
+        <v>0.001131756845407228</v>
       </c>
       <c r="H8">
-        <v>0.000571309460979616</v>
+        <v>0.0005784855495543934</v>
       </c>
       <c r="I8">
-        <v>0.001046980931033598</v>
+        <v>0.001060005962938666</v>
       </c>
       <c r="J8">
-        <v>0.0009817165148613336</v>
+        <v>0.0009961136708088682</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -701,22 +701,22 @@
         <v>10112.86435546875</v>
       </c>
       <c r="E9">
-        <v>0.001147056383293587</v>
+        <v>0.001174733594824063</v>
       </c>
       <c r="F9">
-        <v>0.003691847819919829</v>
+        <v>0.00377433967495171</v>
       </c>
       <c r="G9">
-        <v>0.03374547304344038</v>
+        <v>0.03457058299747717</v>
       </c>
       <c r="H9">
-        <v>0.001128956896907026</v>
+        <v>0.001156270370219292</v>
       </c>
       <c r="I9">
-        <v>0.003460444710859071</v>
+        <v>0.003544504096547954</v>
       </c>
       <c r="J9">
-        <v>0.002196772340961815</v>
+        <v>0.002249920058888309</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -724,31 +724,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.9279426750603066</v>
+        <v>-0.9276862534014474</v>
       </c>
       <c r="C10">
-        <v>-0.8269497971877056</v>
+        <v>-0.826966628983091</v>
       </c>
       <c r="D10">
-        <v>-0.9886076032345201</v>
+        <v>-0.9913031856221859</v>
       </c>
       <c r="E10">
-        <v>-0.7517072576464061</v>
+        <v>-0.7616615308856027</v>
       </c>
       <c r="F10">
-        <v>-0.003800676817137028</v>
+        <v>-0.00782837267617742</v>
       </c>
       <c r="G10">
-        <v>17.54621232145501</v>
+        <v>17.55080922401167</v>
       </c>
       <c r="H10">
-        <v>-0.6099151025007452</v>
+        <v>-0.6221409697178046</v>
       </c>
       <c r="I10">
-        <v>0.03521150599684653</v>
+        <v>0.02746160071777037</v>
       </c>
       <c r="J10">
-        <v>0.1800073693397075</v>
+        <v>0.1798677276658216</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,31 +756,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.3357067394632963</v>
+        <v>0.3351467501504799</v>
       </c>
       <c r="C11">
-        <v>0.5582207309032605</v>
+        <v>0.5583322853038297</v>
       </c>
       <c r="D11">
-        <v>0.1177989365322914</v>
+        <v>0.1181176849048065</v>
       </c>
       <c r="E11">
-        <v>-0.5772203458492937</v>
+        <v>-0.5703891669411483</v>
       </c>
       <c r="F11">
-        <v>-0.3375535916442383</v>
+        <v>-0.317790680881694</v>
       </c>
       <c r="G11">
-        <v>4.389707880784701</v>
+        <v>4.390561852823195</v>
       </c>
       <c r="H11">
-        <v>-0.6872970609103867</v>
+        <v>-0.6800861115283117</v>
       </c>
       <c r="I11">
-        <v>-0.499958634563595</v>
+        <v>-0.4799731133296321</v>
       </c>
       <c r="J11">
-        <v>0.07118602793751168</v>
+        <v>0.1026508904378249</v>
       </c>
     </row>
   </sheetData>
